--- a/excel-dataflows-demo.xlsx
+++ b/excel-dataflows-demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/57d2ab2a84d54c81/Documents/GitHub/blog-files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B46F3543-9C7A-4F7A-9120-D6374F8DA07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{B46F3543-9C7A-4F7A-9120-D6374F8DA07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C60C04A4-39BD-46D6-81DA-C5922F3D444D}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="16826" windowHeight="11280" xr2:uid="{9424478D-E1BB-4333-BABC-58BE92154403}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Taylor</t>
+  </si>
+  <si>
+    <t>Sales</t>
   </si>
 </sst>
 </file>
@@ -169,7 +172,39 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -189,34 +224,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -231,17 +238,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{45E70594-E3BB-4C5E-8F3E-D78828DA67CE}" name="Table1" displayName="Table1" ref="A1:H11" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:H11" xr:uid="{45E70594-E3BB-4C5E-8F3E-D78828DA67CE}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{AA1DEE54-A4EF-4F68-91FE-A963EDB63F35}" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{F287ECC1-CEC9-4381-BBC1-3ACF733FF648}" name="Region" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{2F83F7E0-13FA-4DCA-B9E7-2E08235D6AB3}" name="Salesperson" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00DD67E3-3E7C-4A1A-A41D-14BB71F15B7D}" name="Product Category" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{8F5D0AB1-79F1-4D86-ADA1-2A75C8E6E5EA}" name="Units Sold" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{22425A7B-2BC8-4A11-BAEE-1D16E890DDBD}" name="Unit Price" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{BB176A29-2FF7-46EB-8F01-988BA5448F10}" name="Customer Type" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{49C03DC9-71A2-4A7A-AF9B-C40930A60ECB}" name="Channel" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{45E70594-E3BB-4C5E-8F3E-D78828DA67CE}" name="Table1" displayName="Table1" ref="A1:I11" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I11" xr:uid="{45E70594-E3BB-4C5E-8F3E-D78828DA67CE}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{AA1DEE54-A4EF-4F68-91FE-A963EDB63F35}" name="Date" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{F287ECC1-CEC9-4381-BBC1-3ACF733FF648}" name="Region" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{2F83F7E0-13FA-4DCA-B9E7-2E08235D6AB3}" name="Salesperson" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00DD67E3-3E7C-4A1A-A41D-14BB71F15B7D}" name="Product Category" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{8F5D0AB1-79F1-4D86-ADA1-2A75C8E6E5EA}" name="Units Sold" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{22425A7B-2BC8-4A11-BAEE-1D16E890DDBD}" name="Unit Price" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{BB176A29-2FF7-46EB-8F01-988BA5448F10}" name="Customer Type" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{49C03DC9-71A2-4A7A-AF9B-C40930A60ECB}" name="Channel" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{B0E54112-8F0A-4B87-A31D-8C23D2F52BA9}" name="Sales" dataDxfId="0">
+      <calculatedColumnFormula>Table1[[#This Row],[Units Sold]]*Table1[[#This Row],[Unit Price]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -564,9 +574,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29846C1-1319-41D0-BF6A-0EF6A9A06AF7}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.85"/>
   <cols>
@@ -578,7 +590,7 @@
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,8 +615,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A2" s="2">
         <v>45672</v>
       </c>
@@ -629,8 +644,12 @@
       <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="I2" s="3">
+        <f>Table1[[#This Row],[Units Sold]]*Table1[[#This Row],[Unit Price]]</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A3" s="2">
         <v>45672</v>
       </c>
@@ -655,8 +674,12 @@
       <c r="H3" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="I3" s="3">
+        <f>Table1[[#This Row],[Units Sold]]*Table1[[#This Row],[Unit Price]]</f>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A4" s="2">
         <v>45673</v>
       </c>
@@ -681,8 +704,12 @@
       <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="I4" s="3">
+        <f>Table1[[#This Row],[Units Sold]]*Table1[[#This Row],[Unit Price]]</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A5" s="2">
         <v>45674</v>
       </c>
@@ -707,8 +734,12 @@
       <c r="H5" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="I5" s="3">
+        <f>Table1[[#This Row],[Units Sold]]*Table1[[#This Row],[Unit Price]]</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A6" s="2">
         <v>45674</v>
       </c>
@@ -733,8 +764,12 @@
       <c r="H6" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="I6" s="3">
+        <f>Table1[[#This Row],[Units Sold]]*Table1[[#This Row],[Unit Price]]</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A7" s="2">
         <v>45675</v>
       </c>
@@ -759,8 +794,12 @@
       <c r="H7" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="I7" s="3">
+        <f>Table1[[#This Row],[Units Sold]]*Table1[[#This Row],[Unit Price]]</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A8" s="2">
         <v>45675</v>
       </c>
@@ -785,8 +824,12 @@
       <c r="H8" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="I8" s="3">
+        <f>Table1[[#This Row],[Units Sold]]*Table1[[#This Row],[Unit Price]]</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A9" s="2">
         <v>45676</v>
       </c>
@@ -811,8 +854,12 @@
       <c r="H9" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="I9" s="3">
+        <f>Table1[[#This Row],[Units Sold]]*Table1[[#This Row],[Unit Price]]</f>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A10" s="2">
         <v>45677</v>
       </c>
@@ -837,8 +884,12 @@
       <c r="H10" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="I10" s="3">
+        <f>Table1[[#This Row],[Units Sold]]*Table1[[#This Row],[Unit Price]]</f>
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A11" s="2">
         <v>45677</v>
       </c>
@@ -862,6 +913,10 @@
       </c>
       <c r="H11" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="I11" s="3">
+        <f>Table1[[#This Row],[Units Sold]]*Table1[[#This Row],[Unit Price]]</f>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
